--- a/NEW HR/DONE/ESMAEL, EMRAN.xlsx
+++ b/NEW HR/DONE/ESMAEL, EMRAN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -243,6 +243,21 @@
   </si>
   <si>
     <t>2023</t>
+  </si>
+  <si>
+    <t>VL(7-0-0)</t>
+  </si>
+  <si>
+    <t>5/17,18,20-24/2023</t>
+  </si>
+  <si>
+    <t>CENRO</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>6/5,8/2023</t>
   </si>
 </sst>
 </file>
@@ -2614,7 +2629,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K127" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K128" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2963,10 +2978,10 @@
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A65" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A63" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3034,7 +3049,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -3125,7 +3142,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>53.5</v>
+        <v>54.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3135,7 +3152,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4541,15 +4558,19 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
@@ -4557,7 +4578,9 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -5481,12 +5504,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K127"/>
+  <dimension ref="A2:K128"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A10" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E30:E31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A4" activePane="bottomLeft"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5554,7 +5577,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53"/>
+      <c r="F4" s="53" t="s">
+        <v>68</v>
+      </c>
       <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -5645,7 +5670,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>37.127000000000002</v>
+        <v>28.127000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -5855,32 +5880,32 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="40">
-        <v>44713</v>
-      </c>
+      <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C19" s="13"/>
-      <c r="D19" s="39"/>
+      <c r="D19" s="39">
+        <v>7</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
       <c r="G19" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H19" s="39">
-        <v>3</v>
-      </c>
+      <c r="H19" s="39"/>
       <c r="I19" s="9"/>
       <c r="J19" s="11"/>
       <c r="K19" s="20" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
-      <c r="B20" s="20"/>
+      <c r="B20" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
       <c r="E20" s="9"/>
@@ -5889,13 +5914,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H20" s="39"/>
+      <c r="H20" s="39">
+        <v>3</v>
+      </c>
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
+      <c r="K20" s="20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
+      <c r="A21" s="48" t="s">
+        <v>65</v>
+      </c>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
       <c r="D21" s="39"/>
@@ -5911,10 +5942,16 @@
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="40">
+        <v>45075</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C22" s="13"/>
-      <c r="D22" s="39"/>
+      <c r="D22" s="39">
+        <v>2</v>
+      </c>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
       <c r="G22" s="13" t="str">
@@ -5924,7 +5961,9 @@
       <c r="H22" s="39"/>
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
@@ -7591,20 +7630,36 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="41"/>
-      <c r="B127" s="15"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="43"/>
+      <c r="A127" s="40"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="39"/>
       <c r="E127" s="9"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H127" s="43"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H127" s="39"/>
       <c r="I127" s="9"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="15"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="20"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="41"/>
+      <c r="B128" s="15"/>
+      <c r="C128" s="42"/>
+      <c r="D128" s="43"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H128" s="43"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="12"/>
+      <c r="K128" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7629,7 +7684,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY

--- a/NEW HR/DONE/ESMAEL, EMRAN.xlsx
+++ b/NEW HR/DONE/ESMAEL, EMRAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
   <si>
     <t>PERIOD</t>
   </si>
@@ -258,6 +258,12 @@
   </si>
   <si>
     <t>6/5,8/2023</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>8/23,24/2023</t>
   </si>
 </sst>
 </file>
@@ -645,14 +651,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -662,9 +671,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1195,7 +1201,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1238,7 +1244,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1302,7 +1308,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1362,7 +1368,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1428,7 +1434,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1491,7 +1497,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1589,7 +1595,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1648,7 +1654,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1713,7 +1719,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1756,7 +1762,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1831,7 +1837,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2017,7 +2023,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2083,7 +2089,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2141,7 +2147,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2207,7 +2213,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2263,7 +2269,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2338,7 +2344,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2381,7 +2387,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2447,7 +2453,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2503,7 +2509,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2981,7 +2987,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A63" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+      <selection pane="bottomLeft" activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3011,14 +3017,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3029,14 +3035,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3049,16 +3055,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3084,18 +3090,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3142,7 +3148,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>54.75</v>
+        <v>58.5</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3152,7 +3158,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>78.75</v>
+        <v>82.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4582,13 +4588,15 @@
         <v>45047</v>
       </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
@@ -4596,15 +4604,19 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4612,15 +4624,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -4628,8 +4644,12 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="20"/>
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
@@ -4641,10 +4661,14 @@
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -5461,17 +5485,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5507,9 +5531,9 @@
   <dimension ref="A2:K128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A4" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A13" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5539,14 +5563,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5557,14 +5581,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5577,16 +5601,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5612,18 +5636,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -5966,7 +5990,9 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
+      <c r="A23" s="40">
+        <v>45139</v>
+      </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
